--- a/backend/output_timetables/sem7_timetable.xlsx
+++ b/backend/output_timetables/sem7_timetable.xlsx
@@ -474,22 +474,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>DS456</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>EC456</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS456</t>
         </is>
       </c>
     </row>
@@ -506,12 +506,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,14 +597,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>DS456</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Free</t>
@@ -612,12 +612,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>DS401</t>
         </is>
       </c>
     </row>
@@ -634,22 +634,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC456</t>
         </is>
       </c>
     </row>
@@ -707,22 +707,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -739,27 +739,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>EC456</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS456</t>
         </is>
       </c>
     </row>
@@ -803,27 +803,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>DS401</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/backend/output_timetables/sem7_timetable.xlsx
+++ b/backend/output_timetables/sem7_timetable.xlsx
@@ -479,17 +479,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>DS401</t>
         </is>
       </c>
     </row>
@@ -501,22 +501,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,12 +644,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -707,27 +707,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>DS401</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -803,19 +803,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>DS456</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Free</t>
@@ -823,7 +823,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -840,17 +840,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">

--- a/backend/output_timetables/sem7_timetable.xlsx
+++ b/backend/output_timetables/sem7_timetable.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -484,12 +485,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -501,22 +502,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -575,7 +576,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -585,7 +586,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC456 (Elective)</t>
         </is>
       </c>
     </row>
@@ -597,7 +598,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +613,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS456 (Elective)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -629,22 +630,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -707,12 +708,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -727,7 +728,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -739,7 +740,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -754,7 +755,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -813,7 +814,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -823,7 +824,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC456 (Elective)</t>
         </is>
       </c>
     </row>
@@ -840,7 +841,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -850,7 +851,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>DS456 (Elective)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -867,27 +868,168 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cybersecurity Techniques</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4-0-0-0-4</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Dr. Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>EC456</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Reinforcement Learning</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4-0-0-0-4</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dr. Divyajyothi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>DS401</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EC456</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Health Care Data Analytics</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4-0-0-0-4</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dr. Girish G N</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_timetable.xlsx
+++ b/backend/output_timetables/sem7_timetable.xlsx
@@ -586,7 +586,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC456 (Elective)</t>
+          <t>EC460 (Elective)</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DS456 (Elective)</t>
+          <t>DS460 (Elective)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC456 (Elective)</t>
+          <t>EC460 (Elective)</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DS456 (Elective)</t>
+          <t>DS460 (Elective)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -946,12 +946,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>DS460</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cybersecurity Techniques</t>
+          <t>Security Analytics</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -969,19 +969,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dr. Rajendra Hegadi</t>
+          <t>Dr. Sneha Kapoor</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>EC460</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reinforcement Learning</t>
+          <t>Deep Learning</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -999,19 +999,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dr. Divyajyothi</t>
+          <t>Dr. Arnav Reddy</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS405</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Health Care Data Analytics</t>
+          <t>Bioinformatics</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dr. Girish G N</t>
+          <t>Dr. Kavya Iyer</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_timetable.xlsx
+++ b/backend/output_timetables/sem7_timetable.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Elective_Coordination" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -581,12 +582,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS401 (Elective)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC460 (Elective)</t>
+          <t>EC456 (Elective)</t>
         </is>
       </c>
     </row>
@@ -613,7 +614,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DS460 (Elective)</t>
+          <t>DS456 (Elective)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -819,12 +820,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS401 (Elective)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC460 (Elective)</t>
+          <t>EC456 (Elective)</t>
         </is>
       </c>
     </row>
@@ -851,7 +852,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DS460 (Elective)</t>
+          <t>DS456 (Elective)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -946,12 +947,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DS460</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Security Analytics</t>
+          <t>Cybersecurity Techniques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -969,19 +970,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dr. Sneha Kapoor</t>
+          <t>Dr. Rajendra Hegadi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EC460</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Deep Learning</t>
+          <t>Reinforcement Learning</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -999,19 +1000,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dr. Arnav Reddy</t>
+          <t>Dr. Divyajyothi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DS405</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bioinformatics</t>
+          <t>Health Care Data Analytics</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1029,7 +1030,134 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dr. Kavya Iyer</t>
+          <t>Dr. Girish G N</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Elective Course</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Elective_Slot_1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14:00-15:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Elective_Slot_2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14:00-15:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Elective_Slot_3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_timetable.xlsx
+++ b/backend/output_timetables/sem7_timetable.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DS401 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS401 (Elective)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DS401 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS401 (Elective)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">

--- a/backend/output_timetables/sem7_timetable.xlsx
+++ b/backend/output_timetables/sem7_timetable.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,6 +650,166 @@
         </is>
       </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>15:30-16:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>16:30-17:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>17:30-18:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -666,7 +826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -888,6 +1048,166 @@
         </is>
       </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>15:30-16:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>16:30-17:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>17:30-18:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -904,7 +1224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,10 +1255,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Credits</t>
+          <t>Lectures/Week</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Instructor</t>
         </is>
@@ -968,9 +1298,15 @@
       <c r="E2" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Dr. Rajendra Hegadi</t>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Dr. Raghav Menon</t>
         </is>
       </c>
     </row>
@@ -998,9 +1334,15 @@
       <c r="E3" t="n">
         <v>4</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dr. Divyajyothi</t>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dr. Sneha Rao</t>
         </is>
       </c>
     </row>
@@ -1028,9 +1370,15 @@
       <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dr. Girish G N</t>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dr. Neel Patel</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_timetable.xlsx
+++ b/backend/output_timetables/sem7_timetable.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>9:00-10:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS456 (Elective)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,12 +481,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC456 (Elective)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS456 (Elective)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS401 (Elective)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -530,7 +530,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>12:30-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -562,7 +562,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>14:00-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC456 (Elective)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -587,14 +587,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC456 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS401 (Elective)</t>
+          <t>DS456 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DS456 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -626,7 +626,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>17:00-18:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -651,14 +651,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS401 (Elective)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -678,140 +678,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS401 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>15:30-16:30</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>16:30-17:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>17:30-18:30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>EC456 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -826,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,12 +736,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>9:00-10:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS456 (Elective)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -879,12 +751,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC456 (Elective)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS456 (Elective)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -906,7 +778,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS401 (Elective)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -928,7 +800,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>12:30-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -960,7 +832,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>14:00-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -975,7 +847,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC456 (Elective)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -985,14 +857,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC456 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1007,12 +879,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS401 (Elective)</t>
+          <t>DS456 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DS456 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1024,7 +896,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>17:00-18:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1049,14 +921,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS401 (Elective)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1076,140 +948,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS401 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>15:30-16:30</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>16:30-17:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>17:30-18:30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>EC456 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1050,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dr. Raghav Menon</t>
+          <t>Dr. Rajendra Hegadi</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1086,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dr. Sneha Rao</t>
+          <t>Dr. Divyajyothi</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1122,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dr. Neel Patel</t>
+          <t>Dr. Girish G N</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1409,20 +1153,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Session Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Time Slot</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Slot Name</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Sections</t>
         </is>
@@ -1436,20 +1185,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Lecture 1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Elective_Slot_1</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>A &amp; B (Common Slot)</t>
         </is>
@@ -1458,25 +1212,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Lecture 2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00-15:30</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Elective_Slot_2</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>A &amp; B (Common Slot)</t>
         </is>
@@ -1485,25 +1244,222 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lecture 1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lecture 2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>DS401</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lecture 1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Elective_Slot_3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lecture 2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>A &amp; B (Common Slot)</t>
         </is>
